--- a/tables/per_capita_regional_gross_domestic_product.xlsx
+++ b/tables/per_capita_regional_gross_domestic_product.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Абайская</t>
   </si>
@@ -78,35 +78,311 @@
     <t>г.Алматы</t>
   </si>
   <si>
-    <t>г.Шымкент</t>
-  </si>
-  <si>
-    <t>2019год</t>
-  </si>
-  <si>
-    <t>2020год</t>
-  </si>
-  <si>
-    <t>2021год</t>
-  </si>
-  <si>
-    <t>2022 год</t>
-  </si>
-  <si>
-    <t>РеспубликаКазахстан</t>
-  </si>
-  <si>
-    <t>Регионы  (тыс. тенге)</t>
-  </si>
-  <si>
-    <t>2023 год I кв</t>
+    <t xml:space="preserve">Регионы </t>
+  </si>
+  <si>
+    <t>(тыс. тенге)</t>
+  </si>
+  <si>
+    <t>2019 год</t>
+  </si>
+  <si>
+    <t>2020 год</t>
+  </si>
+  <si>
+    <t>2021 год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 год </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 год </t>
+  </si>
+  <si>
+    <t>I кв</t>
+  </si>
+  <si>
+    <t>Республика Казахстан</t>
+  </si>
+  <si>
+    <t>3 755,7</t>
+  </si>
+  <si>
+    <t>3 766,8</t>
+  </si>
+  <si>
+    <t>4417,9</t>
+  </si>
+  <si>
+    <t>5 240,5</t>
+  </si>
+  <si>
+    <t>1 191,1</t>
+  </si>
+  <si>
+    <t>3 780,6</t>
+  </si>
+  <si>
+    <t>930,9</t>
+  </si>
+  <si>
+    <t>2 621,2</t>
+  </si>
+  <si>
+    <t>3 102,5</t>
+  </si>
+  <si>
+    <t>3 644,9</t>
+  </si>
+  <si>
+    <t>4 263,6</t>
+  </si>
+  <si>
+    <t>871,8</t>
+  </si>
+  <si>
+    <t>3 396,8</t>
+  </si>
+  <si>
+    <t>3 329,8</t>
+  </si>
+  <si>
+    <t>3 982,1</t>
+  </si>
+  <si>
+    <t>4 675,0</t>
+  </si>
+  <si>
+    <t>1 012,0</t>
+  </si>
+  <si>
+    <t>1 585,5</t>
+  </si>
+  <si>
+    <t>1 805,2</t>
+  </si>
+  <si>
+    <t>2 201,1</t>
+  </si>
+  <si>
+    <t>2 847,3</t>
+  </si>
+  <si>
+    <t>676,5</t>
+  </si>
+  <si>
+    <t>14 584,4</t>
+  </si>
+  <si>
+    <t>11 883,2</t>
+  </si>
+  <si>
+    <t>16 037,4</t>
+  </si>
+  <si>
+    <t>20 541,2</t>
+  </si>
+  <si>
+    <t>4 793,4</t>
+  </si>
+  <si>
+    <t>4 501,2</t>
+  </si>
+  <si>
+    <t>4 151,2</t>
+  </si>
+  <si>
+    <t>5 323,6</t>
+  </si>
+  <si>
+    <t>6 420,4</t>
+  </si>
+  <si>
+    <t>1 303,2</t>
+  </si>
+  <si>
+    <t>1 518,8</t>
+  </si>
+  <si>
+    <t>1 675,8</t>
+  </si>
+  <si>
+    <t>1 976,9</t>
+  </si>
+  <si>
+    <t>2 264,8</t>
+  </si>
+  <si>
+    <t>450,2</t>
+  </si>
+  <si>
+    <t>1 985,9</t>
+  </si>
+  <si>
+    <t>450,5</t>
+  </si>
+  <si>
+    <t>3 911,0</t>
+  </si>
+  <si>
+    <t>4 431,7</t>
+  </si>
+  <si>
+    <t>5 419,3</t>
+  </si>
+  <si>
+    <t>6 517,4</t>
+  </si>
+  <si>
+    <t>1 435,4</t>
+  </si>
+  <si>
+    <t>2 815,9</t>
+  </si>
+  <si>
+    <t>3 314,5</t>
+  </si>
+  <si>
+    <t>4 082,8</t>
+  </si>
+  <si>
+    <t>4 997,9</t>
+  </si>
+  <si>
+    <t>1 054,2</t>
+  </si>
+  <si>
+    <t>2 289,1</t>
+  </si>
+  <si>
+    <t>2 033,3</t>
+  </si>
+  <si>
+    <t>2 345,1</t>
+  </si>
+  <si>
+    <t>2 824,0</t>
+  </si>
+  <si>
+    <t>641,4</t>
+  </si>
+  <si>
+    <t>5 352,8</t>
+  </si>
+  <si>
+    <t>4 335,1</t>
+  </si>
+  <si>
+    <t>4 966,5</t>
+  </si>
+  <si>
+    <t>5 357,8</t>
+  </si>
+  <si>
+    <t>1 070,9</t>
+  </si>
+  <si>
+    <t>4 023,3</t>
+  </si>
+  <si>
+    <t>4 151,4</t>
+  </si>
+  <si>
+    <t>5 185,0</t>
+  </si>
+  <si>
+    <t>5 528,9</t>
+  </si>
+  <si>
+    <t>1 181,5</t>
+  </si>
+  <si>
+    <t>2 505,9</t>
+  </si>
+  <si>
+    <t>2 877,7</t>
+  </si>
+  <si>
+    <t>3 313,8</t>
+  </si>
+  <si>
+    <t>3 956,3</t>
+  </si>
+  <si>
+    <t>758,3</t>
+  </si>
+  <si>
+    <t>1 008,1</t>
+  </si>
+  <si>
+    <t>1 174,2</t>
+  </si>
+  <si>
+    <t>1 363,1</t>
+  </si>
+  <si>
+    <t>1 666,6</t>
+  </si>
+  <si>
+    <t>369,9</t>
+  </si>
+  <si>
+    <t>7 569,3</t>
+  </si>
+  <si>
+    <t>1 868,4</t>
+  </si>
+  <si>
+    <t>2 929,2</t>
+  </si>
+  <si>
+    <t>3 369,8</t>
+  </si>
+  <si>
+    <t>3 723,0</t>
+  </si>
+  <si>
+    <t>5 328,4</t>
+  </si>
+  <si>
+    <t>1 382,9</t>
+  </si>
+  <si>
+    <t>7 075,8</t>
+  </si>
+  <si>
+    <t>6 873,6</t>
+  </si>
+  <si>
+    <t>7 361,9</t>
+  </si>
+  <si>
+    <t>7 881,9</t>
+  </si>
+  <si>
+    <t>1 782,7</t>
+  </si>
+  <si>
+    <t>7 183,9</t>
+  </si>
+  <si>
+    <t>6 913,0</t>
+  </si>
+  <si>
+    <t>7 495,8</t>
+  </si>
+  <si>
+    <t>8 944,8</t>
+  </si>
+  <si>
+    <t>2 202,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,20 +408,51 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,7 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF538235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,43 +544,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,442 +883,440 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3755.7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3766.8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4417.8999999999996</v>
-      </c>
-      <c r="E2" s="7">
-        <v>5240.5</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1191.0999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>3780.6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>930.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>2621.1999999999998</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3102.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3644.9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4263.6000000000004</v>
-      </c>
-      <c r="F4" s="9">
-        <v>871.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>3396.8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3329.8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3982.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4675</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>1585.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1805.2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2201.1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2847.3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>676.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>14584.4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11883.2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>16037.4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20541.2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4793.3999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.6" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="44.25" thickBot="1">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>4501.2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4151.2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5323.6</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6420.4</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1303.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>1518.8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1675.8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1976.9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2264.8000000000002</v>
-      </c>
-      <c r="F9" s="9">
-        <v>450.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" thickBot="1">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <v>1985.9</v>
-      </c>
-      <c r="F10" s="9">
-        <v>450.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" thickBot="1">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>3911</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4431.7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5419.3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6517.4</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1435.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>2815.9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3314.5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4082.8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4997.8999999999996</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1054.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>2289.1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2033.3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2345.1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2824</v>
-      </c>
-      <c r="F13" s="9">
-        <v>641.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" thickBot="1">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>5352.8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4335.1000000000004</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4966.5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5357.8</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1070.9000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>4023.3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4151.3999999999996</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5185</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5528.9</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1181.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42.6" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="44.25" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>2505.9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2877.7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3313.8</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3956.3</v>
-      </c>
-      <c r="F16" s="9">
-        <v>758.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" thickBot="1">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>1008.1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1174.2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1363.1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1666.6</v>
-      </c>
-      <c r="F17" s="9">
-        <v>369.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5">
-        <v>7569.3</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1868.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.6" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="44.25" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>2929.2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3369.8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3723</v>
-      </c>
-      <c r="E19" s="5">
-        <v>5328.4</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1382.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>7075.8</v>
-      </c>
-      <c r="C20" s="4">
-        <v>6873.6</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7361.9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>7881.9</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1782.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>7183.9</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6913</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7495.8</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8944.7999999999993</v>
-      </c>
-      <c r="F21" s="10">
-        <v>2202.3000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2152.1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2360.3000000000002</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2442.9</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2689.2</v>
-      </c>
-      <c r="F22" s="9">
-        <v>585.79999999999995</v>
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
